--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf2</t>
+  </si>
+  <si>
+    <t>Gpc4</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf2</t>
-  </si>
-  <si>
-    <t>Gpc4</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H2">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.088202666666666</v>
+        <v>14.11386833333333</v>
       </c>
       <c r="N2">
-        <v>27.264608</v>
+        <v>42.341605</v>
       </c>
       <c r="O2">
-        <v>0.184534923951364</v>
+        <v>0.2886649071682645</v>
       </c>
       <c r="P2">
-        <v>0.1845349239513639</v>
+        <v>0.2886649071682644</v>
       </c>
       <c r="Q2">
-        <v>3.616913809077333</v>
+        <v>14.30898315379611</v>
       </c>
       <c r="R2">
-        <v>32.552224281696</v>
+        <v>128.780848384165</v>
       </c>
       <c r="S2">
-        <v>0.004951029012884152</v>
+        <v>0.02033617915272177</v>
       </c>
       <c r="T2">
-        <v>0.004951029012884151</v>
+        <v>0.02033617915272177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H3">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>78.840599</v>
       </c>
       <c r="O3">
-        <v>0.5336164723419087</v>
+        <v>0.5374976737756012</v>
       </c>
       <c r="P3">
-        <v>0.5336164723419087</v>
+        <v>0.5374976737756011</v>
       </c>
       <c r="Q3">
-        <v>10.45896758314033</v>
+        <v>26.64350590692522</v>
       </c>
       <c r="R3">
-        <v>94.13070824826301</v>
+        <v>239.791553162327</v>
       </c>
       <c r="S3">
-        <v>0.01431680562002451</v>
+        <v>0.03786622037052909</v>
       </c>
       <c r="T3">
-        <v>0.01431680562002451</v>
+        <v>0.03786622037052909</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H4">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,22 +691,22 @@
         <v>0.040395</v>
       </c>
       <c r="O4">
-        <v>0.0002734052971902383</v>
+        <v>0.000275393880913632</v>
       </c>
       <c r="P4">
-        <v>0.0002734052971902382</v>
+        <v>0.0002753938809136319</v>
       </c>
       <c r="Q4">
-        <v>0.005358787235</v>
+        <v>0.01365114464833333</v>
       </c>
       <c r="R4">
-        <v>0.048229085115</v>
+        <v>0.122860301835</v>
       </c>
       <c r="S4">
-        <v>7.335400420041078E-06</v>
+        <v>1.940124746981594E-05</v>
       </c>
       <c r="T4">
-        <v>7.335400420041077E-06</v>
+        <v>1.940124746981594E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H5">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I5">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J5">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,90 +747,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.78587766666667</v>
+        <v>8.486073333333334</v>
       </c>
       <c r="N5">
-        <v>41.357633</v>
+        <v>25.45822</v>
       </c>
       <c r="O5">
-        <v>0.2799206818034362</v>
+        <v>0.1735620251752208</v>
       </c>
       <c r="P5">
-        <v>0.2799206818034362</v>
+        <v>0.1735620251752208</v>
       </c>
       <c r="Q5">
-        <v>5.486489807902333</v>
+        <v>8.603387639784444</v>
       </c>
       <c r="R5">
-        <v>49.378408271121</v>
+        <v>77.43048875805999</v>
       </c>
       <c r="S5">
-        <v>0.007510206671125256</v>
+        <v>0.01222728620772416</v>
       </c>
       <c r="T5">
-        <v>0.007510206671125257</v>
+        <v>0.01222728620772416</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.397979</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H6">
-        <v>1.193937</v>
+        <v>34.046756</v>
       </c>
       <c r="I6">
-        <v>0.02682976699949244</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J6">
-        <v>0.02682976699949244</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.08148366666666666</v>
+        <v>14.11386833333333</v>
       </c>
       <c r="N6">
-        <v>0.244451</v>
+        <v>42.341605</v>
       </c>
       <c r="O6">
-        <v>0.001654516606101026</v>
+        <v>0.2886649071682645</v>
       </c>
       <c r="P6">
-        <v>0.001654516606101025</v>
+        <v>0.2886649071682644</v>
       </c>
       <c r="Q6">
-        <v>0.03242878817633334</v>
+        <v>160.1771437870422</v>
       </c>
       <c r="R6">
-        <v>0.291859093587</v>
+        <v>1441.59429408338</v>
       </c>
       <c r="S6">
-        <v>4.439029503848153E-05</v>
+        <v>0.2276465809773768</v>
       </c>
       <c r="T6">
-        <v>4.439029503848153E-05</v>
+        <v>0.2276465809773767</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H7">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I7">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J7">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.088202666666666</v>
+        <v>26.28019966666666</v>
       </c>
       <c r="N7">
-        <v>27.264608</v>
+        <v>78.840599</v>
       </c>
       <c r="O7">
-        <v>0.184534923951364</v>
+        <v>0.5374976737756012</v>
       </c>
       <c r="P7">
-        <v>0.1845349239513639</v>
+        <v>0.5374976737756011</v>
       </c>
       <c r="Q7">
-        <v>103.1412728901831</v>
+        <v>298.2518485607604</v>
       </c>
       <c r="R7">
-        <v>928.2714560116477</v>
+        <v>2684.266637046844</v>
       </c>
       <c r="S7">
-        <v>0.141185403208534</v>
+        <v>0.4238807859210435</v>
       </c>
       <c r="T7">
-        <v>0.141185403208534</v>
+        <v>0.4238807859210435</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,14 +900,14 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H8">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I8">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J8">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>26.28019966666666</v>
+        <v>0.013465</v>
       </c>
       <c r="N8">
-        <v>78.840599</v>
+        <v>0.040395</v>
       </c>
       <c r="O8">
-        <v>0.5336164723419087</v>
+        <v>0.000275393880913632</v>
       </c>
       <c r="P8">
-        <v>0.5336164723419087</v>
+        <v>0.0002753938809136319</v>
       </c>
       <c r="Q8">
-        <v>298.2518485607604</v>
+        <v>0.1528131898466667</v>
       </c>
       <c r="R8">
-        <v>2684.266637046844</v>
+        <v>1.37531870862</v>
       </c>
       <c r="S8">
-        <v>0.4082634072353927</v>
+        <v>0.0002171807997968224</v>
       </c>
       <c r="T8">
-        <v>0.4082634072353928</v>
+        <v>0.0002171807997968223</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -977,60 +977,60 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H9">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I9">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J9">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.013465</v>
+        <v>8.486073333333334</v>
       </c>
       <c r="N9">
-        <v>0.040395</v>
+        <v>25.45822</v>
       </c>
       <c r="O9">
-        <v>0.0002734052971902383</v>
+        <v>0.1735620251752208</v>
       </c>
       <c r="P9">
-        <v>0.0002734052971902382</v>
+        <v>0.1735620251752208</v>
       </c>
       <c r="Q9">
-        <v>0.1528131898466666</v>
+        <v>96.3077560593689</v>
       </c>
       <c r="R9">
-        <v>1.37531870862</v>
+        <v>866.7698045343201</v>
       </c>
       <c r="S9">
-        <v>0.0002091790339552556</v>
+        <v>0.1368742810002094</v>
       </c>
       <c r="T9">
-        <v>0.0002091790339552556</v>
+        <v>0.1368742810002094</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.34891866666666</v>
+        <v>1.483361</v>
       </c>
       <c r="H10">
-        <v>34.04675599999999</v>
+        <v>4.450083</v>
       </c>
       <c r="I10">
-        <v>0.7650877144845757</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J10">
-        <v>0.7650877144845759</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,43 +1057,43 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.78587766666667</v>
+        <v>14.11386833333333</v>
       </c>
       <c r="N10">
-        <v>41.357633</v>
+        <v>42.341605</v>
       </c>
       <c r="O10">
-        <v>0.2799206818034362</v>
+        <v>0.2886649071682645</v>
       </c>
       <c r="P10">
-        <v>0.2799206818034362</v>
+        <v>0.2886649071682644</v>
       </c>
       <c r="Q10">
-        <v>156.4548043876164</v>
+        <v>20.93596184480167</v>
       </c>
       <c r="R10">
-        <v>1408.093239488548</v>
+        <v>188.423656603215</v>
       </c>
       <c r="S10">
-        <v>0.2141638746779552</v>
+        <v>0.02975455811459828</v>
       </c>
       <c r="T10">
-        <v>0.2141638746779552</v>
+        <v>0.02975455811459827</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.34891866666666</v>
+        <v>1.483361</v>
       </c>
       <c r="H11">
-        <v>34.04675599999999</v>
+        <v>4.450083</v>
       </c>
       <c r="I11">
-        <v>0.7650877144845757</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J11">
-        <v>0.7650877144845759</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.08148366666666666</v>
+        <v>26.28019966666666</v>
       </c>
       <c r="N11">
-        <v>0.244451</v>
+        <v>78.840599</v>
       </c>
       <c r="O11">
-        <v>0.001654516606101026</v>
+        <v>0.5374976737756012</v>
       </c>
       <c r="P11">
-        <v>0.001654516606101025</v>
+        <v>0.5374976737756011</v>
       </c>
       <c r="Q11">
-        <v>0.9247515056617776</v>
+        <v>38.98302325774633</v>
       </c>
       <c r="R11">
-        <v>8.322763550955997</v>
+        <v>350.847209319717</v>
       </c>
       <c r="S11">
-        <v>0.001265850328738611</v>
+        <v>0.05540335999864054</v>
       </c>
       <c r="T11">
-        <v>0.001265850328738611</v>
+        <v>0.05540335999864054</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.483361</v>
+      </c>
+      <c r="H12">
+        <v>4.450083</v>
+      </c>
+      <c r="I12">
+        <v>0.1030764647025631</v>
+      </c>
+      <c r="J12">
+        <v>0.1030764647025631</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G12">
-        <v>0.119535</v>
-      </c>
-      <c r="H12">
-        <v>0.358605</v>
-      </c>
-      <c r="I12">
-        <v>0.008058455843861933</v>
-      </c>
-      <c r="J12">
-        <v>0.008058455843861934</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
-        <v>9.088202666666666</v>
+        <v>0.013465</v>
       </c>
       <c r="N12">
-        <v>27.264608</v>
+        <v>0.040395</v>
       </c>
       <c r="O12">
-        <v>0.184534923951364</v>
+        <v>0.000275393880913632</v>
       </c>
       <c r="P12">
-        <v>0.1845349239513639</v>
+        <v>0.0002753938809136319</v>
       </c>
       <c r="Q12">
-        <v>1.08635830576</v>
+        <v>0.019973455865</v>
       </c>
       <c r="R12">
-        <v>9.777224751839999</v>
+        <v>0.179761102785</v>
       </c>
       <c r="S12">
-        <v>0.001487066536312486</v>
+        <v>2.838662764529586E-05</v>
       </c>
       <c r="T12">
-        <v>0.001487066536312486</v>
+        <v>2.838662764529585E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H13">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I13">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J13">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,42 +1243,42 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.28019966666666</v>
+        <v>8.486073333333334</v>
       </c>
       <c r="N13">
-        <v>78.840599</v>
+        <v>25.45822</v>
       </c>
       <c r="O13">
-        <v>0.5336164723419087</v>
+        <v>0.1735620251752208</v>
       </c>
       <c r="P13">
-        <v>0.5336164723419087</v>
+        <v>0.1735620251752208</v>
       </c>
       <c r="Q13">
-        <v>3.141403667155</v>
+        <v>12.58791022580667</v>
       </c>
       <c r="R13">
-        <v>28.272633004395</v>
+        <v>113.29119203226</v>
       </c>
       <c r="S13">
-        <v>0.004300124779924643</v>
+        <v>0.01789015996167902</v>
       </c>
       <c r="T13">
-        <v>0.004300124779924645</v>
+        <v>0.01789015996167902</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,60 +1287,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.119535</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H14">
-        <v>0.358605</v>
+        <v>0.941998</v>
       </c>
       <c r="I14">
-        <v>0.008058455843861933</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J14">
-        <v>0.008058455843861934</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.013465</v>
+        <v>14.11386833333333</v>
       </c>
       <c r="N14">
-        <v>0.040395</v>
+        <v>42.341605</v>
       </c>
       <c r="O14">
-        <v>0.0002734052971902383</v>
+        <v>0.2886649071682645</v>
       </c>
       <c r="P14">
-        <v>0.0002734052971902382</v>
+        <v>0.2886649071682644</v>
       </c>
       <c r="Q14">
-        <v>0.001609538775</v>
+        <v>4.431745247421111</v>
       </c>
       <c r="R14">
-        <v>0.014485848975</v>
+        <v>39.88570722679</v>
       </c>
       <c r="S14">
-        <v>2.203224514885484E-06</v>
+        <v>0.006298474485719783</v>
       </c>
       <c r="T14">
-        <v>2.203224514885484E-06</v>
+        <v>0.006298474485719781</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.119535</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H15">
-        <v>0.358605</v>
+        <v>0.941998</v>
       </c>
       <c r="I15">
-        <v>0.008058455843861933</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J15">
-        <v>0.008058455843861934</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,42 +1367,42 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.78587766666667</v>
+        <v>26.28019966666666</v>
       </c>
       <c r="N15">
-        <v>41.357633</v>
+        <v>78.840599</v>
       </c>
       <c r="O15">
-        <v>0.2799206818034362</v>
+        <v>0.5374976737756012</v>
       </c>
       <c r="P15">
-        <v>0.2799206818034362</v>
+        <v>0.5374976737756011</v>
       </c>
       <c r="Q15">
-        <v>1.647894886885</v>
+        <v>8.251965175200223</v>
       </c>
       <c r="R15">
-        <v>14.831053981965</v>
+        <v>74.26768657680199</v>
       </c>
       <c r="S15">
-        <v>0.002255728454096717</v>
+        <v>0.01172783840481164</v>
       </c>
       <c r="T15">
-        <v>0.002255728454096718</v>
+        <v>0.01172783840481164</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,46 +1411,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.119535</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H16">
-        <v>0.358605</v>
+        <v>0.941998</v>
       </c>
       <c r="I16">
-        <v>0.008058455843861933</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J16">
-        <v>0.008058455843861934</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.08148366666666666</v>
+        <v>0.013465</v>
       </c>
       <c r="N16">
-        <v>0.244451</v>
+        <v>0.040395</v>
       </c>
       <c r="O16">
-        <v>0.001654516606101026</v>
+        <v>0.000275393880913632</v>
       </c>
       <c r="P16">
-        <v>0.001654516606101025</v>
+        <v>0.0002753938809136319</v>
       </c>
       <c r="Q16">
-        <v>0.009740150095</v>
+        <v>0.004228001023333334</v>
       </c>
       <c r="R16">
-        <v>0.08766135085499999</v>
+        <v>0.03805200921</v>
       </c>
       <c r="S16">
-        <v>1.333284901320142E-05</v>
+        <v>6.008909602048638E-06</v>
       </c>
       <c r="T16">
-        <v>1.333284901320142E-05</v>
+        <v>6.008909602048637E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H17">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I17">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J17">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,60 +1491,60 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.088202666666666</v>
+        <v>8.486073333333334</v>
       </c>
       <c r="N17">
-        <v>27.264608</v>
+        <v>25.45822</v>
       </c>
       <c r="O17">
-        <v>0.184534923951364</v>
+        <v>0.1735620251752208</v>
       </c>
       <c r="P17">
-        <v>0.1845349239513639</v>
+        <v>0.1735620251752208</v>
       </c>
       <c r="Q17">
-        <v>21.62169146445155</v>
+        <v>2.664621369284445</v>
       </c>
       <c r="R17">
-        <v>194.595223180064</v>
+        <v>23.98159232356</v>
       </c>
       <c r="S17">
-        <v>0.02959695126808603</v>
+        <v>0.003787006872362091</v>
       </c>
       <c r="T17">
-        <v>0.02959695126808603</v>
+        <v>0.003787006872362091</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>2.379094333333333</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H18">
-        <v>7.137283</v>
+        <v>0.692329</v>
       </c>
       <c r="I18">
-        <v>0.1603867204881316</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J18">
-        <v>0.1603867204881316</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,834 +1553,214 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.28019966666666</v>
+        <v>14.11386833333333</v>
       </c>
       <c r="N18">
-        <v>78.840599</v>
+        <v>42.341605</v>
       </c>
       <c r="O18">
-        <v>0.5336164723419087</v>
+        <v>0.2886649071682645</v>
       </c>
       <c r="P18">
-        <v>0.5336164723419087</v>
+        <v>0.2886649071682644</v>
       </c>
       <c r="Q18">
-        <v>62.52307410583521</v>
+        <v>3.257146783116111</v>
       </c>
       <c r="R18">
-        <v>562.707666952517</v>
+        <v>29.314321048045</v>
       </c>
       <c r="S18">
-        <v>0.08558499599736449</v>
+        <v>0.004629114437847948</v>
       </c>
       <c r="T18">
-        <v>0.08558499599736454</v>
+        <v>0.004629114437847946</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>2.379094333333333</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H19">
-        <v>7.137283</v>
+        <v>0.692329</v>
       </c>
       <c r="I19">
-        <v>0.1603867204881316</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J19">
-        <v>0.1603867204881316</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.013465</v>
+        <v>26.28019966666666</v>
       </c>
       <c r="N19">
-        <v>0.040395</v>
+        <v>78.840599</v>
       </c>
       <c r="O19">
-        <v>0.0002734052971902383</v>
+        <v>0.5374976737756012</v>
       </c>
       <c r="P19">
-        <v>0.0002734052971902382</v>
+        <v>0.5374976737756011</v>
       </c>
       <c r="Q19">
-        <v>0.03203450519833333</v>
+        <v>6.064848118341222</v>
       </c>
       <c r="R19">
-        <v>0.288310546785</v>
+        <v>54.583633065071</v>
       </c>
       <c r="S19">
-        <v>4.385057898042529E-05</v>
+        <v>0.008619469080576432</v>
       </c>
       <c r="T19">
-        <v>4.38505789804253E-05</v>
+        <v>0.00861946908057643</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>2.379094333333333</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H20">
-        <v>7.137283</v>
+        <v>0.692329</v>
       </c>
       <c r="I20">
-        <v>0.1603867204881316</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J20">
-        <v>0.1603867204881316</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>13.78587766666667</v>
+        <v>0.013465</v>
       </c>
       <c r="N20">
-        <v>41.357633</v>
+        <v>0.040395</v>
       </c>
       <c r="O20">
-        <v>0.2799206818034362</v>
+        <v>0.000275393880913632</v>
       </c>
       <c r="P20">
-        <v>0.2799206818034362</v>
+        <v>0.0002753938809136319</v>
       </c>
       <c r="Q20">
-        <v>32.79790343679322</v>
+        <v>0.003107403328333333</v>
       </c>
       <c r="R20">
-        <v>295.181130931139</v>
+        <v>0.027966629955</v>
       </c>
       <c r="S20">
-        <v>0.04489556015125494</v>
+        <v>4.416296399649184E-06</v>
       </c>
       <c r="T20">
-        <v>0.04489556015125495</v>
+        <v>4.416296399649182E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>2.379094333333333</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H21">
-        <v>7.137283</v>
+        <v>0.692329</v>
       </c>
       <c r="I21">
-        <v>0.1603867204881316</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J21">
-        <v>0.1603867204881316</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.08148366666666666</v>
+        <v>8.486073333333334</v>
       </c>
       <c r="N21">
-        <v>0.244451</v>
+        <v>25.45822</v>
       </c>
       <c r="O21">
-        <v>0.001654516606101026</v>
+        <v>0.1735620251752208</v>
       </c>
       <c r="P21">
-        <v>0.001654516606101025</v>
+        <v>0.1735620251752208</v>
       </c>
       <c r="Q21">
-        <v>0.1938573296258889</v>
+        <v>1.958384888264445</v>
       </c>
       <c r="R21">
-        <v>1.744715966633</v>
+        <v>17.62546399438</v>
       </c>
       <c r="S21">
-        <v>0.0002653624924456973</v>
+        <v>0.002783291133246115</v>
       </c>
       <c r="T21">
-        <v>0.0002653624924456973</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.1305996666666666</v>
-      </c>
-      <c r="H22">
-        <v>0.391799</v>
-      </c>
-      <c r="I22">
-        <v>0.008804380700685325</v>
-      </c>
-      <c r="J22">
-        <v>0.008804380700685326</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>9.088202666666666</v>
-      </c>
-      <c r="N22">
-        <v>27.264608</v>
-      </c>
-      <c r="O22">
-        <v>0.184534923951364</v>
-      </c>
-      <c r="P22">
-        <v>0.1845349239513639</v>
-      </c>
-      <c r="Q22">
-        <v>1.186916238865777</v>
-      </c>
-      <c r="R22">
-        <v>10.682246149792</v>
-      </c>
-      <c r="S22">
-        <v>0.001624715723039823</v>
-      </c>
-      <c r="T22">
-        <v>0.001624715723039823</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.1305996666666666</v>
-      </c>
-      <c r="H23">
-        <v>0.391799</v>
-      </c>
-      <c r="I23">
-        <v>0.008804380700685325</v>
-      </c>
-      <c r="J23">
-        <v>0.008804380700685326</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>26.28019966666666</v>
-      </c>
-      <c r="N23">
-        <v>78.840599</v>
-      </c>
-      <c r="O23">
-        <v>0.5336164723419087</v>
-      </c>
-      <c r="P23">
-        <v>0.5336164723419087</v>
-      </c>
-      <c r="Q23">
-        <v>3.43218531640011</v>
-      </c>
-      <c r="R23">
-        <v>30.889667847601</v>
-      </c>
-      <c r="S23">
-        <v>0.004698162570654885</v>
-      </c>
-      <c r="T23">
-        <v>0.004698162570654886</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.1305996666666666</v>
-      </c>
-      <c r="H24">
-        <v>0.391799</v>
-      </c>
-      <c r="I24">
-        <v>0.008804380700685325</v>
-      </c>
-      <c r="J24">
-        <v>0.008804380700685326</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.013465</v>
-      </c>
-      <c r="N24">
-        <v>0.040395</v>
-      </c>
-      <c r="O24">
-        <v>0.0002734052971902383</v>
-      </c>
-      <c r="P24">
-        <v>0.0002734052971902382</v>
-      </c>
-      <c r="Q24">
-        <v>0.001758524511666666</v>
-      </c>
-      <c r="R24">
-        <v>0.015826720605</v>
-      </c>
-      <c r="S24">
-        <v>2.40716432204687E-06</v>
-      </c>
-      <c r="T24">
-        <v>2.40716432204687E-06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.1305996666666666</v>
-      </c>
-      <c r="H25">
-        <v>0.391799</v>
-      </c>
-      <c r="I25">
-        <v>0.008804380700685325</v>
-      </c>
-      <c r="J25">
-        <v>0.008804380700685326</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>13.78587766666667</v>
-      </c>
-      <c r="N25">
-        <v>41.357633</v>
-      </c>
-      <c r="O25">
-        <v>0.2799206818034362</v>
-      </c>
-      <c r="P25">
-        <v>0.2799206818034362</v>
-      </c>
-      <c r="Q25">
-        <v>1.800431027974111</v>
-      </c>
-      <c r="R25">
-        <v>16.203879251767</v>
-      </c>
-      <c r="S25">
-        <v>0.002464528248592851</v>
-      </c>
-      <c r="T25">
-        <v>0.002464528248592852</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.1305996666666666</v>
-      </c>
-      <c r="H26">
-        <v>0.391799</v>
-      </c>
-      <c r="I26">
-        <v>0.008804380700685325</v>
-      </c>
-      <c r="J26">
-        <v>0.008804380700685326</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.08148366666666666</v>
-      </c>
-      <c r="N26">
-        <v>0.244451</v>
-      </c>
-      <c r="O26">
-        <v>0.001654516606101026</v>
-      </c>
-      <c r="P26">
-        <v>0.001654516606101025</v>
-      </c>
-      <c r="Q26">
-        <v>0.01064173970544444</v>
-      </c>
-      <c r="R26">
-        <v>0.09577565734899998</v>
-      </c>
-      <c r="S26">
-        <v>1.456699407571925E-05</v>
-      </c>
-      <c r="T26">
-        <v>1.456699407571925E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H27">
-        <v>1.372081</v>
-      </c>
-      <c r="I27">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J27">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>9.088202666666666</v>
-      </c>
-      <c r="N27">
-        <v>27.264608</v>
-      </c>
-      <c r="O27">
-        <v>0.184534923951364</v>
-      </c>
-      <c r="P27">
-        <v>0.1845349239513639</v>
-      </c>
-      <c r="Q27">
-        <v>4.156583401027556</v>
-      </c>
-      <c r="R27">
-        <v>37.409250609248</v>
-      </c>
-      <c r="S27">
-        <v>0.005689758202507418</v>
-      </c>
-      <c r="T27">
-        <v>0.005689758202507418</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H28">
-        <v>1.372081</v>
-      </c>
-      <c r="I28">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J28">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>26.28019966666666</v>
-      </c>
-      <c r="N28">
-        <v>78.840599</v>
-      </c>
-      <c r="O28">
-        <v>0.5336164723419087</v>
-      </c>
-      <c r="P28">
-        <v>0.5336164723419087</v>
-      </c>
-      <c r="Q28">
-        <v>12.01952087961322</v>
-      </c>
-      <c r="R28">
-        <v>108.175687916519</v>
-      </c>
-      <c r="S28">
-        <v>0.01645297613854739</v>
-      </c>
-      <c r="T28">
-        <v>0.01645297613854739</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H29">
-        <v>1.372081</v>
-      </c>
-      <c r="I29">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J29">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M29">
-        <v>0.013465</v>
-      </c>
-      <c r="N29">
-        <v>0.040395</v>
-      </c>
-      <c r="O29">
-        <v>0.0002734052971902383</v>
-      </c>
-      <c r="P29">
-        <v>0.0002734052971902382</v>
-      </c>
-      <c r="Q29">
-        <v>0.006158356888333333</v>
-      </c>
-      <c r="R29">
-        <v>0.05542521199500001</v>
-      </c>
-      <c r="S29">
-        <v>8.429894997583945E-06</v>
-      </c>
-      <c r="T29">
-        <v>8.429894997583945E-06</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H30">
-        <v>1.372081</v>
-      </c>
-      <c r="I30">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J30">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>13.78587766666667</v>
-      </c>
-      <c r="N30">
-        <v>41.357633</v>
-      </c>
-      <c r="O30">
-        <v>0.2799206818034362</v>
-      </c>
-      <c r="P30">
-        <v>0.2799206818034362</v>
-      </c>
-      <c r="Q30">
-        <v>6.305113604919223</v>
-      </c>
-      <c r="R30">
-        <v>56.746022444273</v>
-      </c>
-      <c r="S30">
-        <v>0.008630783600411255</v>
-      </c>
-      <c r="T30">
-        <v>0.008630783600411257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H31">
-        <v>1.372081</v>
-      </c>
-      <c r="I31">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J31">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.08148366666666666</v>
-      </c>
-      <c r="N31">
-        <v>0.244451</v>
-      </c>
-      <c r="O31">
-        <v>0.001654516606101026</v>
-      </c>
-      <c r="P31">
-        <v>0.001654516606101025</v>
-      </c>
-      <c r="Q31">
-        <v>0.03726739694788889</v>
-      </c>
-      <c r="R31">
-        <v>0.335406572531</v>
-      </c>
-      <c r="S31">
-        <v>5.101364678931533E-05</v>
-      </c>
-      <c r="T31">
-        <v>5.101364678931533E-05</v>
+        <v>0.002783291133246115</v>
       </c>
     </row>
   </sheetData>
